--- a/Assets/Excel/HumanData.xlsx
+++ b/Assets/Excel/HumanData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14070" windowHeight="9810"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="HumanData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>//remark</t>
   </si>
@@ -31,6 +31,9 @@
     <t>waitTime</t>
   </si>
   <si>
+    <t>spriteUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,16 +43,31 @@
     <t>芋圆</t>
   </si>
   <si>
+    <t>imgHuman1001</t>
+  </si>
+  <si>
     <t>珍珠</t>
   </si>
   <si>
+    <t>imgHuman1002</t>
+  </si>
+  <si>
     <t>椰果</t>
   </si>
   <si>
+    <t>imgHuman1003</t>
+  </si>
+  <si>
     <t>辣椒</t>
   </si>
   <si>
+    <t>imgHuman2001</t>
+  </si>
+  <si>
     <t>屎</t>
+  </si>
+  <si>
+    <t>imgHuman9999</t>
   </si>
 </sst>
 </file>
@@ -980,20 +998,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="14.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1006,27 +1027,33 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1034,13 +1061,16 @@
       <c r="D4">
         <v>30</v>
       </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -1048,13 +1078,16 @@
       <c r="D5">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1062,13 +1095,16 @@
       <c r="D6">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>-100</v>
@@ -1076,19 +1112,25 @@
       <c r="D7">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>9999</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>-1000</v>
       </c>
       <c r="D8">
         <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/HumanData.xlsx
+++ b/Assets/Excel/HumanData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14290" windowHeight="10370"/>
   </bookViews>
   <sheets>
     <sheet name="HumanData" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -1090,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>20</v>
